--- a/STUDIO/org.openl.rules.demo/src/org.openl.rules.demo.tutorials/Tutorial 2 - Introduction to Data Tables/Tutorial2 - Intro to Data Tables.xlsx
+++ b/STUDIO/org.openl.rules.demo/src/org.openl.rules.demo.tutorials/Tutorial 2 - Introduction to Data Tables/Tutorial2 - Intro to Data Tables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\OpenL\draft docs for mercurial\tut and examples with logo\org.openl.rules.demo.tutorials\Tutorial 2 - Introduction to Data Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenL\openl-demo-app-5.23.3\apache-tomcat-9.0.30\openl-demo\user-workspace\DEFAULT\Tutorial 2 - Introduction to Data Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC546898-C14C-40A5-B198-B5B5D6D73292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="105" windowWidth="16140" windowHeight="9210"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Stanislav Shor</author>
   </authors>
   <commentList>
-    <comment ref="C23" authorId="0" shapeId="0">
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0">
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -105,13 +106,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Elena Poyasok</author>
     <author>Elena Lisova</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -126,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -140,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -154,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0" shapeId="0">
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C67" authorId="1" shapeId="0">
+    <comment ref="C67" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -187,12 +188,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Stanislav Shor</author>
   </authors>
   <commentList>
-    <comment ref="C13" authorId="0" shapeId="0">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -207,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0">
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -247,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0" shapeId="0">
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -720,6 +721,292 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">             This is how you create </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Advanced Data Table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: 
+  - the first row is </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: keyword "Data", type and name;
+  - the second row contains </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>attribute names</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">;
+  - the third row contains </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>display names</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">;
+  - then you fill the table with </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            This is how you create </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Simple Data Table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: 
+  - the first row is </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: keyword "Data", data table type and name;
+  - the second row is keyword "</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">";
+  - the third row contains </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>display name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">;
+  - then you fill the table with </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data Person </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>person1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data Person </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>person2</t>
+    </r>
+  </si>
+  <si>
+    <t>instead of Java beans for the tutorial to work in WebStudio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data Person </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>person3</t>
+    </r>
+  </si>
+  <si>
+    <t>_PK_</t>
+  </si>
+  <si>
+    <t>person ID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      There might be situation when you need Data Table to have a column with unique values but all defined attribute columns could contain not unique values. In such case you can  insert one more column with predefined </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>_PK_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> attribute name (primary key). Moreover, OpenL Tablets validates values of this column on uniqueness.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">       Notice that for "gender" attribute we use </t>
     </r>
     <r>
@@ -758,300 +1045,14 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>. Alias Datatype allows you to define possible values for a particular data type. In the example below, the Gende Data type can only be ‘Male’ or ‘Female’:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">             This is how you create </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Advanced Data Table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 
-  - the first row is </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>header</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: keyword "Data", type and name;
-  - the second row contains </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>attribute names</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">;
-  - the third row contains </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>display names</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">;
-  - then you fill the table with </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            This is how you create </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Simple Data Table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 
-  - the first row is </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>header</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>: keyword "Data", data table type and name;
-  - the second row is keyword "</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">";
-  - the third row contains </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>display name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">;
-  - then you fill the table with </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Data Person </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>person1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Data Person </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>person2</t>
-    </r>
-  </si>
-  <si>
-    <t>instead of Java beans for the tutorial to work in WebStudio</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Data Person </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>person3</t>
-    </r>
-  </si>
-  <si>
-    <t>_PK_</t>
-  </si>
-  <si>
-    <t>person ID</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      There might be situation when you need Data Table to have a column with unique values but all defined attribute columns could contain not unique values. In such case you can  insert one more column with predefined </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>_PK_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> attribute name (primary key). Moreover, OpenL Tablets validates values of this column on uniqueness.</t>
+      <t>. Alias Datatype allows you to define possible values for a particular data type. In the example below, the Gender Data type can only be ‘Male’ or ‘Female’:</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -1512,6 +1513,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1530,18 +1543,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1553,9 +1557,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1626,7 +1627,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1699,7 +1706,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1750,7 +1763,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2155,18 +2174,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="41" t="s">
         <v>59</v>
       </c>
@@ -2177,11 +2196,11 @@
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
     </row>
-    <row r="4" spans="2:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E4" s="16"/>
       <c r="G4" s="20"/>
     </row>
-    <row r="6" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2193,7 +2212,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="5"/>
@@ -2205,7 +2224,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="45" t="s">
         <v>60</v>
@@ -2219,7 +2238,7 @@
       <c r="J8" s="45"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
@@ -2231,7 +2250,7 @@
       <c r="J9" s="46"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -2243,7 +2262,7 @@
       <c r="J10" s="46"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
@@ -2255,7 +2274,7 @@
       <c r="J11" s="46"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -2267,7 +2286,7 @@
       <c r="J12" s="46"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -2279,7 +2298,7 @@
       <c r="J13" s="46"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -2291,7 +2310,7 @@
       <c r="J14" s="46"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -2303,7 +2322,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -2315,7 +2334,7 @@
       <c r="J16" s="46"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -2327,7 +2346,7 @@
       <c r="J17" s="46"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -2339,7 +2358,7 @@
       <c r="J18" s="46"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -2351,7 +2370,7 @@
       <c r="J19" s="46"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -2363,7 +2382,7 @@
       <c r="J20" s="47"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2375,7 +2394,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2387,7 +2406,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2399,7 +2418,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2411,7 +2430,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="43" t="s">
         <v>68</v>
@@ -2425,7 +2444,7 @@
       <c r="J25" s="43"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="44" t="s">
         <v>72</v>
@@ -2439,7 +2458,7 @@
       <c r="J26" s="44"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="44" t="s">
         <v>71</v>
@@ -2453,7 +2472,7 @@
       <c r="J27" s="44"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="44" t="s">
         <v>73</v>
@@ -2467,7 +2486,7 @@
       <c r="J28" s="44"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="44" t="s">
         <v>63</v>
@@ -2481,7 +2500,7 @@
       <c r="J29" s="44"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="44" t="s">
         <v>69</v>
@@ -2495,7 +2514,7 @@
       <c r="J30" s="44"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="42" t="s">
         <v>58</v>
@@ -2509,7 +2528,7 @@
       <c r="J31" s="42"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2521,7 +2540,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2533,7 +2552,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2545,7 +2564,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="40" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
     </row>
   </sheetData>
@@ -2562,13 +2581,13 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C28:J28" location="_st13" display="    Step1-3. Array of IntRange"/>
-    <hyperlink ref="C29:J29" location="_st2" display="Step2. Advanced Data Table. Using OpenL Datatypes"/>
-    <hyperlink ref="C30:J30" location="_st21" display="    Step2-1. Same table  transposed"/>
-    <hyperlink ref="C31:J31" location="_st3" display="Step3. Data Table with Java Beans"/>
-    <hyperlink ref="C25:J25" location="_st1" display="Step1. Simple Data Table. Using primitive (semi-primitive) Datatypes"/>
-    <hyperlink ref="C26:J26" location="_st11" display="    Step1-1. Array of Strings"/>
-    <hyperlink ref="C27:J27" location="_st12" display="    Step1-2. Array of Integers"/>
+    <hyperlink ref="C28:J28" location="_st13" display="    Step1-3. Array of IntRange" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C29:J29" location="_st2" display="Step2. Advanced Data Table. Using OpenL Datatypes" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C30:J30" location="_st21" display="    Step2-1. Same table  transposed" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C31:J31" location="_st3" display="Step3. Data Table with Java Beans" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C25:J25" location="_st1" display="Step1. Simple Data Table. Using primitive (semi-primitive) Datatypes" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C26:J26" location="_st11" display="    Step1-1. Array of Strings" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C27:J27" location="_st12" display="    Step1-2. Array of Integers" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2578,20 +2597,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="19.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="48" t="s">
         <v>67</v>
       </c>
@@ -2600,25 +2619,25 @@
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
     </row>
-    <row r="4" spans="2:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
     </row>
-    <row r="6" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="54" t="s">
         <v>68</v>
@@ -2627,86 +2646,86 @@
       <c r="E8" s="54"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="51"/>
       <c r="E12" s="51"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
       <c r="E14" s="52"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="52"/>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
       <c r="E17" s="53"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="2:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="50" t="s">
         <v>64</v>
@@ -2715,21 +2734,21 @@
       <c r="E20" s="50"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="21" t="s">
         <v>74</v>
@@ -2738,7 +2757,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="10" t="s">
         <v>0</v>
@@ -2747,7 +2766,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="9" t="s">
         <v>6</v>
@@ -2756,7 +2775,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="25" t="s">
         <v>1</v>
@@ -2765,7 +2784,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="25" t="s">
         <v>2</v>
@@ -2774,7 +2793,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="25" t="s">
         <v>3</v>
@@ -2783,7 +2802,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="25" t="s">
         <v>4</v>
@@ -2792,7 +2811,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="27" t="s">
         <v>5</v>
@@ -2801,28 +2820,28 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="C34" s="49" t="s">
         <v>70</v>
@@ -2831,21 +2850,21 @@
       <c r="E34" s="49"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="21" t="s">
         <v>75</v>
@@ -2854,7 +2873,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="10" t="s">
         <v>0</v>
@@ -2863,7 +2882,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="9" t="s">
         <v>35</v>
@@ -2872,7 +2891,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="25">
         <v>10</v>
@@ -2881,7 +2900,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="25">
         <v>20</v>
@@ -2890,7 +2909,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="25">
         <v>30</v>
@@ -2899,7 +2918,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="25">
         <v>40</v>
@@ -2908,7 +2927,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="27">
         <v>50</v>
@@ -2917,28 +2936,28 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
       <c r="C48" s="50" t="s">
         <v>65</v>
@@ -2947,21 +2966,21 @@
       <c r="E48" s="50"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="21" t="s">
         <v>76</v>
@@ -2970,7 +2989,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="10" t="s">
         <v>0</v>
@@ -2979,7 +2998,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="9" t="s">
         <v>49</v>
@@ -2988,7 +3007,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="25" t="s">
         <v>55</v>
@@ -2997,7 +3016,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="25" t="s">
         <v>50</v>
@@ -3006,7 +3025,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="25" t="s">
         <v>51</v>
@@ -3015,7 +3034,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="25" t="s">
         <v>52</v>
@@ -3024,7 +3043,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="25" t="s">
         <v>53</v>
@@ -3033,7 +3052,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="25" t="s">
         <v>54</v>
@@ -3042,7 +3061,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="C60" s="27" t="s">
         <v>56</v>
@@ -3051,28 +3070,28 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="C64" s="51" t="s">
         <v>77</v>
@@ -3081,56 +3100,56 @@
       <c r="E64" s="51"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="52"/>
       <c r="D65" s="52"/>
       <c r="E65" s="52"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="52"/>
       <c r="D66" s="52"/>
       <c r="E66" s="52"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="52"/>
       <c r="D67" s="52"/>
       <c r="E67" s="52"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="53"/>
       <c r="D68" s="53"/>
       <c r="E68" s="53"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="3" t="s">
         <v>78</v>
@@ -3139,40 +3158,40 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="8"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="8"/>
     </row>
   </sheetData>
@@ -3187,7 +3206,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C72" location="_st2" tooltip="Step2. Advanced Data Table. Using OpenL Datatypes" display="Step 2."/>
+    <hyperlink ref="C72" location="_st2" tooltip="Step2. Advanced Data Table. Using OpenL Datatypes" display="Step 2." xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3198,24 +3217,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:G30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="11"/>
-    <col min="3" max="3" width="12.7109375" style="11" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="11"/>
+    <col min="3" max="3" width="12.6640625" style="11" customWidth="1"/>
     <col min="4" max="4" width="13" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="11" customWidth="1"/>
     <col min="6" max="6" width="11" style="11" customWidth="1"/>
-    <col min="7" max="8" width="16.5703125" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="11"/>
+    <col min="7" max="8" width="16.5546875" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
         <v>62</v>
       </c>
@@ -3226,7 +3247,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="2:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -3234,7 +3255,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3244,7 +3265,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3254,29 +3275,29 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3286,7 +3307,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3296,7 +3317,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="51" t="s">
         <v>84</v>
@@ -3308,7 +3329,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
@@ -3318,7 +3339,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -3328,7 +3349,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="52"/>
       <c r="D15" s="52"/>
@@ -3338,7 +3359,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
@@ -3349,7 +3370,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="37"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3359,7 +3380,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -3369,91 +3390,91 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61" t="s">
+      <c r="D20" s="64"/>
+      <c r="E20" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="61"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="22"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="63"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="23"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63" t="s">
+      <c r="D22" s="57"/>
+      <c r="E22" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="63"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63" t="s">
+      <c r="D23" s="57"/>
+      <c r="E23" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="63"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="23" t="s">
         <v>28</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="66" t="s">
+      <c r="D24" s="66"/>
+      <c r="E24" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="66"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="24"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -3463,7 +3484,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -3473,10 +3494,10 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="51" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D27" s="51"/>
       <c r="E27" s="51"/>
@@ -3485,7 +3506,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
@@ -3495,7 +3516,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
@@ -3505,7 +3526,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
@@ -3515,7 +3536,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -3525,7 +3546,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -3535,43 +3556,43 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="67"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="68"/>
+      <c r="D34" s="69"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="69"/>
+      <c r="D35" s="70"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3581,7 +3602,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3591,7 +3612,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -3601,10 +3622,10 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
       <c r="C39" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="51"/>
       <c r="E39" s="51"/>
@@ -3613,7 +3634,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5"/>
       <c r="C40" s="52"/>
       <c r="D40" s="52"/>
@@ -3623,7 +3644,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
       <c r="C41" s="52"/>
       <c r="D41" s="52"/>
@@ -3633,7 +3654,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
       <c r="C42" s="52"/>
       <c r="D42" s="52"/>
@@ -3643,7 +3664,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
       <c r="C43" s="52"/>
       <c r="D43" s="52"/>
@@ -3653,7 +3674,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
       <c r="C44" s="53"/>
       <c r="D44" s="53"/>
@@ -3663,7 +3684,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -3673,7 +3694,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3683,19 +3704,19 @@
       <c r="H46" s="5"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
-      <c r="C47" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
+      <c r="C47" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
       <c r="H47" s="5"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="10" t="s">
         <v>8</v>
@@ -3715,7 +3736,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="9" t="s">
         <v>14</v>
@@ -3735,7 +3756,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="25" t="s">
         <v>19</v>
@@ -3755,7 +3776,7 @@
       <c r="H50" s="5"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="25" t="s">
         <v>20</v>
@@ -3775,7 +3796,7 @@
       <c r="H51" s="5"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="25" t="s">
         <v>21</v>
@@ -3795,7 +3816,7 @@
       <c r="H52" s="5"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="27" t="s">
         <v>29</v>
@@ -3815,7 +3836,7 @@
       <c r="H53" s="5"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3825,7 +3846,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
@@ -3835,7 +3856,7 @@
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3845,10 +3866,10 @@
       <c r="H56" s="5"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="38"/>
       <c r="C57" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" s="51"/>
       <c r="E57" s="51"/>
@@ -3857,7 +3878,7 @@
       <c r="H57" s="38"/>
       <c r="I57" s="38"/>
     </row>
-    <row r="58" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="38"/>
       <c r="C58" s="52"/>
       <c r="D58" s="52"/>
@@ -3867,7 +3888,7 @@
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
     </row>
-    <row r="59" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="40"/>
       <c r="C59" s="52"/>
       <c r="D59" s="52"/>
@@ -3877,7 +3898,7 @@
       <c r="H59" s="40"/>
       <c r="I59" s="40"/>
     </row>
-    <row r="60" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="38"/>
       <c r="C60" s="52"/>
       <c r="D60" s="52"/>
@@ -3887,7 +3908,7 @@
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
     </row>
-    <row r="61" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="38"/>
       <c r="C61" s="52"/>
       <c r="D61" s="52"/>
@@ -3897,7 +3918,7 @@
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
     </row>
-    <row r="62" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="38"/>
       <c r="C62" s="53"/>
       <c r="D62" s="53"/>
@@ -3907,7 +3928,7 @@
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -3917,7 +3938,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
@@ -3927,7 +3948,7 @@
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="38"/>
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
@@ -3937,22 +3958,22 @@
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
     </row>
-    <row r="66" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="38"/>
-      <c r="C66" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
+      <c r="C66" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
       <c r="H66" s="38"/>
       <c r="I66" s="38"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="38"/>
       <c r="C67" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>8</v>
@@ -3969,10 +3990,10 @@
       <c r="H67" s="38"/>
       <c r="I67" s="38"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="38"/>
       <c r="C68" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>14</v>
@@ -3989,7 +4010,7 @@
       <c r="H68" s="38"/>
       <c r="I68" s="38"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="38"/>
       <c r="C69" s="25">
         <v>1</v>
@@ -4009,7 +4030,7 @@
       <c r="H69" s="38"/>
       <c r="I69" s="38"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="38"/>
       <c r="C70" s="25">
         <v>2</v>
@@ -4029,7 +4050,7 @@
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="38"/>
       <c r="C71" s="25">
         <v>3</v>
@@ -4049,7 +4070,7 @@
       <c r="H71" s="38"/>
       <c r="I71" s="38"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="38"/>
       <c r="C72" s="27">
         <v>4</v>
@@ -4069,7 +4090,7 @@
       <c r="H72" s="38"/>
       <c r="I72" s="38"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
@@ -4079,7 +4100,7 @@
       <c r="H73" s="38"/>
       <c r="I73" s="38"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
@@ -4089,7 +4110,7 @@
       <c r="H74" s="38"/>
       <c r="I74" s="38"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="38"/>
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
@@ -4099,17 +4120,17 @@
       <c r="H75" s="38"/>
       <c r="I75" s="38"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
       <c r="G76" s="1"/>
       <c r="H76" s="5"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -4119,19 +4140,19 @@
       <c r="H77" s="5"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
-      <c r="C78" s="57" t="s">
+      <c r="C78" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D78" s="57"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
       <c r="H78" s="5"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="29"/>
       <c r="D79" s="29"/>
@@ -4141,7 +4162,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -4151,19 +4172,19 @@
       <c r="H80" s="5"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
-      <c r="C81" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="59"/>
+      <c r="C81" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="63"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="7" t="s">
         <v>8</v>
@@ -4185,7 +4206,7 @@
       </c>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="27" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="10" t="s">
         <v>9</v>
@@ -4207,7 +4228,7 @@
       </c>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="10" t="s">
         <v>11</v>
@@ -4229,7 +4250,7 @@
       </c>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="10" t="s">
         <v>12</v>
@@ -4251,7 +4272,7 @@
       </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" ht="27" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="6" t="s">
         <v>13</v>
@@ -4273,7 +4294,7 @@
       </c>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -4283,7 +4304,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4293,7 +4314,7 @@
       <c r="H88" s="5"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4303,7 +4324,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -4313,7 +4334,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="3" t="s">
         <v>57</v>
@@ -4325,7 +4346,7 @@
       <c r="H91" s="5"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -4335,7 +4356,7 @@
       <c r="H92" s="5"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4345,7 +4366,7 @@
       <c r="H93" s="5"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -4357,14 +4378,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C57:G62"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C27:G30"/>
-    <mergeCell ref="C12:G16"/>
-    <mergeCell ref="C39:G44"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C19:G19"/>
     <mergeCell ref="D76:F76"/>
     <mergeCell ref="C8:G9"/>
     <mergeCell ref="C78:G78"/>
@@ -4381,10 +4394,18 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C57:G62"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C27:G30"/>
+    <mergeCell ref="C12:G16"/>
+    <mergeCell ref="C39:G44"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C19:G19"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C91" location="_st3" tooltip="Step3. Data Table with Java Beans" display="Step 3."/>
+    <hyperlink ref="C91" location="_st3" tooltip="Step3. Data Table with Java Beans" display="Step 3." xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4395,22 +4416,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B3:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="74" t="s">
         <v>79</v>
       </c>
@@ -4422,7 +4443,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="2:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -4432,7 +4453,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -4442,7 +4463,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4452,7 +4473,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4462,29 +4483,29 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4494,7 +4515,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4504,19 +4525,19 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="10" t="s">
         <v>8</v>
@@ -4534,7 +4555,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="10" t="s">
         <v>9</v>
@@ -4552,7 +4573,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="10" t="s">
         <v>11</v>
@@ -4570,7 +4591,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="2:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="10" t="s">
         <v>36</v>
@@ -4588,7 +4609,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="2:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="10" t="s">
         <v>37</v>
@@ -4604,7 +4625,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -4614,7 +4635,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -4624,7 +4645,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="77" t="s">
         <v>81</v>
@@ -4636,7 +4657,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="78"/>
       <c r="D21" s="78"/>
@@ -4646,7 +4667,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
@@ -4656,7 +4677,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="79"/>
       <c r="D23" s="79"/>
@@ -4666,7 +4687,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -4676,7 +4697,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -4686,7 +4707,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="75" t="s">
         <v>43</v>
@@ -4698,7 +4719,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="14" t="s">
         <v>44</v>
@@ -4712,7 +4733,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -4722,7 +4743,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -4732,19 +4753,19 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="70"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="31" t="s">
         <v>7</v>
@@ -4758,7 +4779,7 @@
       <c r="H31" s="72"/>
       <c r="I31" s="72"/>
     </row>
-    <row r="32" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" s="33" t="s">
         <v>7</v>
@@ -4772,7 +4793,7 @@
       <c r="H32" s="72"/>
       <c r="I32" s="72"/>
     </row>
-    <row r="33" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="C33" s="33" t="s">
         <v>10</v>
@@ -4786,7 +4807,7 @@
       <c r="H33" s="72"/>
       <c r="I33" s="72"/>
     </row>
-    <row r="34" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="30"/>
       <c r="C34" s="33" t="s">
         <v>7</v>
@@ -4800,7 +4821,7 @@
       <c r="H34" s="72"/>
       <c r="I34" s="72"/>
     </row>
-    <row r="35" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" s="35" t="s">
         <v>7</v>
@@ -4814,7 +4835,7 @@
       <c r="H35" s="72"/>
       <c r="I35" s="72"/>
     </row>
-    <row r="36" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -4824,7 +4845,7 @@
       <c r="H36" s="72"/>
       <c r="I36" s="72"/>
     </row>
-    <row r="37" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -4834,10 +4855,10 @@
       <c r="H37" s="72"/>
       <c r="I37" s="72"/>
     </row>
-    <row r="38" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D38" s="73"/>
       <c r="E38" s="30"/>
@@ -4846,7 +4867,7 @@
       <c r="H38" s="72"/>
       <c r="I38" s="72"/>
     </row>
-    <row r="39" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
@@ -4856,7 +4877,7 @@
       <c r="H39" s="72"/>
       <c r="I39" s="72"/>
     </row>
-    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="71"/>
       <c r="D40" s="71"/>
@@ -4866,7 +4887,7 @@
       <c r="H40" s="72"/>
       <c r="I40" s="72"/>
     </row>
-    <row r="41" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
@@ -4876,7 +4897,7 @@
       <c r="H41" s="72"/>
       <c r="I41" s="72"/>
     </row>
-    <row r="42" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
